--- a/Vindturbin.xlsx
+++ b/Vindturbin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce47301d0b58e66/Dokument/Energigemenskaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{A07C25C6-93DC-42C9-8F11-CB18668DBE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF0A72B-E193-49B1-AAF7-99B9D07358BB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{A07C25C6-93DC-42C9-8F11-CB18668DBE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BD9DD8-7F98-4A1D-9DD9-51F083DE0133}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{960AD1F3-438E-4CB9-94EB-106FBDB6D477}"/>
   </bookViews>
@@ -83,6 +83,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,7 +409,7 @@
   <dimension ref="A1:A8740"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8740"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
